--- a/TelerikWebApp1/Template/DanhSachHoCaThe_Import.xlsx
+++ b/TelerikWebApp1/Template/DanhSachHoCaThe_Import.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\LVTN1\Telerik_LVTN\TelerikWebApp1\Template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,17 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t>Mã số thuế</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Nghề kinh doanh</t>
   </si>
   <si>
-    <t>masothue</t>
-  </si>
-  <si>
     <t>nghekinhdoanh</t>
   </si>
   <si>
@@ -77,12 +66,6 @@
   </si>
   <si>
     <t>địa chỉ kinh doanh</t>
-  </si>
-  <si>
-    <t>madp</t>
-  </si>
-  <si>
-    <t>Mã đường phố</t>
   </si>
   <si>
     <t>DNT</t>
@@ -118,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,79 +462,67 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="15.44140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -560,10 +531,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -572,10 +541,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -584,10 +551,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -596,10 +561,8 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -608,10 +571,8 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -620,10 +581,8 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -632,10 +591,8 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -644,10 +601,8 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -656,10 +611,8 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -668,10 +621,8 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -680,10 +631,8 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -692,10 +641,8 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -704,10 +651,8 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -716,10 +661,8 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -728,10 +671,8 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -740,10 +681,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -752,13 +691,11 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="P19" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N19" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -767,13 +704,11 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="P20" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N20" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -782,13 +717,11 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -797,13 +730,11 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="P22" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N22" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -812,13 +743,11 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="P23" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N23" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -827,13 +756,11 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="P24" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -842,13 +769,11 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="P25" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N25" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -857,13 +782,11 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="P26" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N26" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -872,13 +795,11 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="P27" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N27" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -887,13 +808,11 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="P28" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N28" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -902,10 +821,8 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -914,10 +831,8 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -926,10 +841,8 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -938,10 +851,8 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -950,10 +861,8 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -962,10 +871,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -974,10 +881,8 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -986,10 +891,8 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -998,10 +901,8 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1010,10 +911,8 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1022,10 +921,8 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1034,10 +931,8 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1046,10 +941,8 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1058,10 +951,8 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1070,10 +961,8 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1082,10 +971,8 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1094,10 +981,8 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1106,10 +991,8 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1118,10 +1001,8 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1130,10 +1011,8 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1142,10 +1021,8 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1154,15 +1031,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J50">
-      <formula1>$P$19:$P$28</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1173,7 +1043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1185,7 +1055,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TelerikWebApp1/Template/DanhSachHoCaThe_Import.xlsx
+++ b/TelerikWebApp1/Template/DanhSachHoCaThe_Import.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Mã đường phố" sheetId="2" r:id="rId2"/>
+    <sheet name="Quận" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Nghề kinh doanh</t>
   </si>
@@ -96,13 +96,73 @@
   </si>
   <si>
     <t>XV</t>
+  </si>
+  <si>
+    <t>mã đường phố</t>
+  </si>
+  <si>
+    <t>madp</t>
+  </si>
+  <si>
+    <t>Tuyến đường : Đỗ Ngọc Thạnh</t>
+  </si>
+  <si>
+    <t>Tuyến đường : Dương Từ Giang</t>
+  </si>
+  <si>
+    <t>Tuyến đường : Học Lạc</t>
+  </si>
+  <si>
+    <t>Tuyến đường : Hải Thượng Lãng Ông</t>
+  </si>
+  <si>
+    <t>Tuyến đường : Nguyễn Trãi</t>
+  </si>
+  <si>
+    <t>Tuyến đường : Phú Giáo</t>
+  </si>
+  <si>
+    <t>Tuyến đường : Trần Chánh Chiếu</t>
+  </si>
+  <si>
+    <t>Tuyến đường : Tống Duy Tân</t>
+  </si>
+  <si>
+    <t>Tên đường</t>
+  </si>
+  <si>
+    <t>Mã quận</t>
+  </si>
+  <si>
+    <t>Tên quận</t>
+  </si>
+  <si>
+    <t>Quận 1</t>
+  </si>
+  <si>
+    <t>Quận 2</t>
+  </si>
+  <si>
+    <t>Quận 3</t>
+  </si>
+  <si>
+    <t>Quận 4</t>
+  </si>
+  <si>
+    <t>Quận 5</t>
+  </si>
+  <si>
+    <t>Quận 6</t>
+  </si>
+  <si>
+    <t>Quận 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +170,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +198,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,11 +228,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -179,11 +277,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -194,6 +304,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="madp"/>
+    <tableColumn id="2" name="Tên đường"/>
+    <tableColumn id="3" name="Mã quận" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +592,7 @@
     <col min="14" max="14" width="15.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -495,8 +617,11 @@
       <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -521,8 +646,11 @@
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -531,8 +659,9 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -541,8 +670,9 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -551,8 +681,9 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -561,8 +692,9 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -571,8 +703,9 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -581,8 +714,9 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -591,8 +725,9 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -601,8 +736,9 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -611,8 +747,9 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -621,8 +758,9 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -631,8 +769,9 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -641,8 +780,9 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -651,8 +791,9 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -661,6 +802,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -671,6 +813,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -681,6 +824,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -691,6 +835,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="N19" s="7" t="s">
         <v>15</v>
       </c>
@@ -704,6 +849,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="N20" s="7" t="s">
         <v>16</v>
       </c>
@@ -717,6 +863,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
       <c r="N21" s="7" t="s">
         <v>17</v>
       </c>
@@ -730,6 +877,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="N22" s="7" t="s">
         <v>18</v>
       </c>
@@ -743,6 +891,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="N23" s="7" t="s">
         <v>19</v>
       </c>
@@ -756,6 +905,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="N24" s="7" t="s">
         <v>20</v>
       </c>
@@ -769,6 +919,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
       <c r="N25" s="7" t="s">
         <v>21</v>
       </c>
@@ -782,6 +933,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
       <c r="N26" s="7" t="s">
         <v>22</v>
       </c>
@@ -795,6 +947,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="N27" s="7" t="s">
         <v>23</v>
       </c>
@@ -808,6 +961,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="N28" s="7" t="s">
         <v>24</v>
       </c>
@@ -821,6 +975,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
@@ -831,6 +986,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -841,6 +997,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
@@ -851,8 +1008,9 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -861,8 +1019,9 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -871,8 +1030,9 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -881,8 +1041,9 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -891,8 +1052,9 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -901,8 +1063,9 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -911,8 +1074,9 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -921,8 +1085,9 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -931,8 +1096,9 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -941,8 +1107,9 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -951,8 +1118,9 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -961,8 +1129,9 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -971,8 +1140,9 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -981,8 +1151,9 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -991,8 +1162,9 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1001,8 +1173,9 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -1011,8 +1184,9 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1021,8 +1195,9 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1031,32 +1206,229 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Mã đường phố'!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="79.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>